--- a/sucai/info.xlsx
+++ b/sucai/info.xlsx
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="23.2" outlineLevelRow="4" outlineLevelCol="2"/>
